--- a/data/trans_bre/P16A05-Edad-trans_bre.xlsx
+++ b/data/trans_bre/P16A05-Edad-trans_bre.xlsx
@@ -539,7 +539,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que ha consumido tranquilizantes en las dos últimas semanas</t>
+          <t>Población que ha consumido medicamentos tranquilizantes en las dos últimas semanas</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>

--- a/data/trans_bre/P16A05-Edad-trans_bre.xlsx
+++ b/data/trans_bre/P16A05-Edad-trans_bre.xlsx
@@ -662,25 +662,23 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.7012215976964622</v>
+        <v>0.7759358278295807</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-0.554648941965718</v>
+        <v>-0.651447179043287</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-0.01220976272995453</v>
+        <v>0.04878772431694806</v>
       </c>
       <c r="F5" s="5" t="n">
         <v>0</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.07958215126324814</v>
-      </c>
-      <c r="H5" s="6" t="n">
-        <v>-1</v>
-      </c>
+        <v>-0.1007558281814025</v>
+      </c>
+      <c r="H5" s="6" t="inlineStr"/>
       <c r="I5" s="6" t="n">
-        <v>-0.5315505105713123</v>
+        <v>-0.5558403804866549</v>
       </c>
       <c r="J5" s="6" t="inlineStr"/>
     </row>
@@ -692,16 +690,16 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>3.664793035229525</v>
+        <v>3.707155974667273</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>1.767448676820049</v>
+        <v>1.680759218335429</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>3.43176938469883</v>
+        <v>3.523384931692222</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>3.407873591201752</v>
+        <v>3.391314896165438</v>
       </c>
       <c r="G6" s="6" t="inlineStr"/>
       <c r="H6" s="6" t="inlineStr"/>
@@ -729,7 +727,7 @@
         <v>0.6508651257301389</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>0.4424823165209902</v>
+        <v>0.442482316520991</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>-0.08491851237688167</v>
@@ -741,7 +739,7 @@
         <v>0.3508616695119924</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>0.2889872232842488</v>
+        <v>0.2889872232842493</v>
       </c>
     </row>
     <row r="8">
@@ -752,28 +750,28 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>-1.450542592164737</v>
+        <v>-1.35132305049246</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>-1.695363717213605</v>
+        <v>-2.200126031801414</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>-0.9195181688263766</v>
+        <v>-1.003609896712649</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>-1.435486596044139</v>
+        <v>-1.469855651942304</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>-0.6340777894917136</v>
+        <v>-0.6081268425588696</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>-0.5469830727365104</v>
+        <v>-0.6090963307617678</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>-0.3809705814759536</v>
+        <v>-0.3944868713637008</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>-0.6499192277127577</v>
+        <v>-0.6670494234907857</v>
       </c>
     </row>
     <row r="9">
@@ -784,28 +782,28 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>1.281262572983843</v>
+        <v>1.336712429943462</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>1.924569635433752</v>
+        <v>1.778617912238708</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>2.358112720969697</v>
+        <v>2.295094568948445</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>2.325331465343216</v>
+        <v>2.272931128158296</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>1.062439049065605</v>
+        <v>1.289434910587564</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>1.401833774484805</v>
+        <v>1.065234705002871</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>2.202593853599253</v>
+        <v>1.923412498410521</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>3.345610705931503</v>
+        <v>3.251251481805883</v>
       </c>
     </row>
     <row r="10">
@@ -829,7 +827,7 @@
         <v>2.569143959039061</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>1.824891162829711</v>
+        <v>1.824891162829712</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>1.979829624934721</v>
@@ -841,7 +839,7 @@
         <v>0.8768607851737827</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>0.6200365168978085</v>
+        <v>0.6200365168978088</v>
       </c>
     </row>
     <row r="11">
@@ -852,28 +850,28 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.7772708008851547</v>
+        <v>0.9350846270118057</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.4746359218276742</v>
+        <v>0.3854845816004165</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.425834263588927</v>
+        <v>0.3900697413020368</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-0.2445930774429164</v>
+        <v>-0.3388918163442091</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.300794120512249</v>
+        <v>0.2990214739515819</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.09051645830172603</v>
+        <v>0.04289742284429753</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.07130209712675162</v>
+        <v>0.07072862723813426</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>-0.1195012805078106</v>
+        <v>-0.1074037707683116</v>
       </c>
     </row>
     <row r="12">
@@ -884,28 +882,28 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>4.322547406952089</v>
+        <v>4.433028101942944</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>5.083799464875244</v>
+        <v>5.020604614214042</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>4.750609084918493</v>
+        <v>4.782212025689661</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>3.733224277117828</v>
+        <v>3.653807020848282</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>5.893495849405648</v>
+        <v>6.141540157001148</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>2.575421397834614</v>
+        <v>2.595255517620632</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>2.169778033698901</v>
+        <v>2.309180409546</v>
       </c>
       <c r="J12" s="6" t="n">
-        <v>1.84199183803412</v>
+        <v>1.871483600927935</v>
       </c>
     </row>
     <row r="13">
@@ -952,28 +950,28 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>1.173922218707821</v>
+        <v>1.281721678734128</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>1.944117392548989</v>
+        <v>1.757141718278733</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>1.12222887480149</v>
+        <v>1.173098120560315</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>-1.234828352646377</v>
+        <v>-1.261221827033753</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.1922882046320791</v>
+        <v>0.2173474734386125</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.2879981919888583</v>
+        <v>0.2839985483354193</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.1950937912791049</v>
+        <v>0.1778082051731255</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>-0.1608518852814534</v>
+        <v>-0.155695702951067</v>
       </c>
     </row>
     <row r="15">
@@ -984,28 +982,28 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>6.708934926722621</v>
+        <v>6.577606032655944</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>7.541760764822509</v>
+        <v>7.749111424416712</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>6.573067253266809</v>
+        <v>6.338491569502914</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>3.770387014746601</v>
+        <v>3.884934082267756</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>3.263283463961777</v>
+        <v>3.559887143836242</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>2.513433738340018</v>
+        <v>2.588896862318402</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>2.121547603438833</v>
+        <v>2.154505280066079</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>0.746822517640349</v>
+        <v>0.8326920054536892</v>
       </c>
     </row>
     <row r="16">
@@ -1052,28 +1050,28 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.06328449982626637</v>
+        <v>0.4596965009137789</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>4.185059408830107</v>
+        <v>4.348577299122453</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>3.05110332697933</v>
+        <v>3.056316451348269</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>3.868522986126599</v>
+        <v>3.926166039995401</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.01147011025832972</v>
+        <v>0.06735967655764188</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.7761263528094084</v>
+        <v>0.8481000674936038</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.3662780497572318</v>
+        <v>0.3755937664821408</v>
       </c>
       <c r="J17" s="6" t="n">
-        <v>0.5235388438052125</v>
+        <v>0.5138250375514436</v>
       </c>
     </row>
     <row r="18">
@@ -1084,28 +1082,28 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>6.950237509367615</v>
+        <v>7.028048711402871</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>10.65874375057068</v>
+        <v>11.07803739556905</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>11.30821357910876</v>
+        <v>10.67011085885982</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>9.296482692987929</v>
+        <v>9.37100362241763</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>2.791592911847862</v>
+        <v>2.330832262705094</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>4.86795354994886</v>
+        <v>5.131851560449006</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>2.589817753968315</v>
+        <v>2.312868977748119</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>2.094149609170427</v>
+        <v>2.033023208097152</v>
       </c>
     </row>
     <row r="19">
@@ -1152,28 +1150,28 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>1.813664068097243</v>
+        <v>1.733848724702731</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>1.391030143492862</v>
+        <v>1.014158862153528</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>4.763651504698666</v>
+        <v>4.463721382699823</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>6.080975105017873</v>
+        <v>5.822724179230804</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>0.2019532476216104</v>
+        <v>0.199855014369679</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.1312869708462033</v>
+        <v>0.08272444792708258</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.7562109162653859</v>
+        <v>0.739133979771137</v>
       </c>
       <c r="J20" s="6" t="n">
-        <v>0.9189886849957654</v>
+        <v>0.9091875346244718</v>
       </c>
     </row>
     <row r="21">
@@ -1184,28 +1182,28 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>9.974911271733447</v>
+        <v>9.806325750873853</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>9.779455946882305</v>
+        <v>9.900573498302995</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>12.80105615832989</v>
+        <v>12.72745679450192</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>12.05422909274234</v>
+        <v>11.93972040191218</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>3.256411630499911</v>
+        <v>3.166889102072631</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>3.063320823700466</v>
+        <v>2.947540992585291</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>5.252625417342895</v>
+        <v>5.030192849588739</v>
       </c>
       <c r="J21" s="6" t="n">
-        <v>3.240137338145724</v>
+        <v>3.277830538571838</v>
       </c>
     </row>
     <row r="22">
@@ -1252,28 +1250,28 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>-3.557183066401817</v>
+        <v>-3.392855890520594</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.1207098271680204</v>
+        <v>-0.1188171485666472</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>1.359408880086356</v>
+        <v>1.762616220491914</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>5.526236776594411</v>
+        <v>4.947725205409926</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>-0.3958966405091173</v>
+        <v>-0.3944949767805937</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>-0.02504138176697695</v>
+        <v>-0.02490181117880031</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.09200380978757511</v>
+        <v>0.2293282951436331</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>0.517471475129892</v>
+        <v>0.4670655729026896</v>
       </c>
     </row>
     <row r="24">
@@ -1284,28 +1282,28 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>5.816454739823515</v>
+        <v>5.545632340536521</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>10.62012387379252</v>
+        <v>10.58649774381042</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>10.81392664056248</v>
+        <v>10.92617989142669</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>12.53569961639921</v>
+        <v>12.82804193276294</v>
       </c>
       <c r="G24" s="6" t="n">
-        <v>1.264069340209794</v>
+        <v>1.2019509674091</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>2.274872589162413</v>
+        <v>2.141777929681532</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>2.583722978956499</v>
+        <v>2.508685749460227</v>
       </c>
       <c r="J24" s="6" t="n">
-        <v>2.017184368255386</v>
+        <v>2.003772778510742</v>
       </c>
     </row>
     <row r="25">
@@ -1329,7 +1327,7 @@
         <v>4.154661994065215</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>4.156656878102508</v>
+        <v>4.156656878102505</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>1.065140725873233</v>
@@ -1341,7 +1339,7 @@
         <v>1.193449409625744</v>
       </c>
       <c r="J25" s="6" t="n">
-        <v>0.9756906307278709</v>
+        <v>0.9756906307278705</v>
       </c>
     </row>
     <row r="26">
@@ -1352,28 +1350,28 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>1.807313727424075</v>
+        <v>1.721029970504768</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>2.706741243887876</v>
+        <v>2.627239253978823</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>3.040328117700129</v>
+        <v>3.043760138922582</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>3.073443312244053</v>
+        <v>3.227932296635751</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>0.577277641997617</v>
+        <v>0.5739642525917306</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.670379700139957</v>
+        <v>0.644586805955855</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.7635247494268453</v>
+        <v>0.7740481259428803</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>0.6317549387052059</v>
+        <v>0.6644920788394101</v>
       </c>
     </row>
     <row r="27">
@@ -1384,28 +1382,28 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>3.700278503334968</v>
+        <v>3.664700605021114</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>4.926027917135909</v>
+        <v>4.962389210967966</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>5.254336593976269</v>
+        <v>5.268577326546982</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>5.079570758534027</v>
+        <v>5.211794076607769</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>1.647338348732777</v>
+        <v>1.662175201712726</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>1.712798041391111</v>
+        <v>1.746616182366771</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>1.736983286286212</v>
+        <v>1.731223294433643</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>1.323802357727107</v>
+        <v>1.386162305954521</v>
       </c>
     </row>
     <row r="28">
